--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:48</t>
+          <t>05/08/2023 17:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.91</v>
+        <v>6.81</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>5.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:58</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.97</v>
+        <v>10.25</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>7.23</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:53</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.26</v>
+        <v>3.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:56</t>
+          <t>05/08/2023 17:48</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.81</v>
+        <v>3.91</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>10.25</v>
+        <v>1.97</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.23</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.39</v>
+        <v>3.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.62</v>
+        <v>4.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:45</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:45</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.68</v>
+        <v>3.19</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.79</v>
+        <v>3.76</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.33</v>
+        <v>3.71</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>27/08/2023 16:29</t>
+          <t>27/08/2023 16:23</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.72</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.4</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>27/08/2023 16:29</t>
+          <t>27/08/2023 16:23</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-winterthur/neFPzjMK/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-luzern/4WPKyW6E/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.19</v>
+        <v>1.68</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3.76</v>
+        <v>1.79</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.71</v>
+        <v>4.33</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.97</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:23</t>
+          <t>27/08/2023 16:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.22</v>
+        <v>4.72</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.93</v>
+        <v>4.4</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:23</t>
+          <t>27/08/2023 16:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-luzern/4WPKyW6E/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-winterthur/neFPzjMK/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.33</v>
+        <v>1.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.68</v>
+        <v>4.44</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/09/2023 20:25</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>4.91</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.93</v>
+        <v>5.75</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,32 +4476,32 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
           <t>27/09/2023 20:29</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:29</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
         </is>
       </c>
     </row>
@@ -5330,6 +5330,282 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:54</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.85416666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-lausanne-ouchy/AZZdZZto/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>27/09/2023 20:29</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:29</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.33</v>
+        <v>1.81</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.68</v>
+        <v>3.84</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>27/09/2023 20:25</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.75</v>
+        <v>3.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.89</v>
+        <v>4.47</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.84</v>
+        <v>4.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.13</v>
+        <v>5.75</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.65</v>
+        <v>3.89</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:28</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.79</v>
+        <v>3.66</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.62</v>
+        <v>3.13</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:28</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.66</v>
+        <v>2.79</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.13</v>
+        <v>2.62</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.61</v>
+        <v>1.63</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.53</v>
+        <v>4.38</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.96</v>
+        <v>5.44</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.73</v>
+        <v>5.17</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:54</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
       <c r="J55" t="n">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.63</v>
+        <v>2.61</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.38</v>
+        <v>3.53</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.44</v>
+        <v>2.96</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.17</v>
+        <v>2.73</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:54</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,98 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-lausanne-ouchy/AZZdZZto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45207.59375</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:11</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:06</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:11</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-servette/CvEubJJo/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:45</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.39</v>
+        <v>3.88</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.62</v>
+        <v>4.46</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:45</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.19</v>
+        <v>1.68</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.76</v>
+        <v>1.79</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.71</v>
+        <v>4.33</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.97</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>27/08/2023 16:23</t>
+          <t>27/08/2023 16:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.22</v>
+        <v>4.72</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>4.4</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>27/08/2023 16:23</t>
+          <t>27/08/2023 16:29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-luzern/4WPKyW6E/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-winterthur/neFPzjMK/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.68</v>
+        <v>3.19</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.79</v>
+        <v>3.76</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.33</v>
+        <v>3.71</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:29</t>
+          <t>27/08/2023 16:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.72</v>
+        <v>2.22</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.4</v>
+        <v>1.93</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:29</t>
+          <t>27/08/2023 16:23</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-winterthur/neFPzjMK/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-luzern/4WPKyW6E/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.21</v>
+        <v>3.65</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.81</v>
+        <v>2.9</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:26</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.61</v>
+        <v>4.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.9</v>
+        <v>4.81</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:26</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>3</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.63</v>
+        <v>2.61</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.38</v>
+        <v>3.53</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.44</v>
+        <v>2.96</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.17</v>
+        <v>2.73</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:54</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.61</v>
+        <v>1.63</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.53</v>
+        <v>4.38</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.96</v>
+        <v>5.44</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.73</v>
+        <v>5.17</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:54</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,190 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-servette/CvEubJJo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45207.6875</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-luzern/QsIqcwZi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.6875</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:19</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-basel/K4Hmdclb/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 17:54</t>
+          <t>02/09/2023 17:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.45</v>
+        <v>3.58</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.3</v>
+        <v>3.79</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 17:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.59</v>
+        <v>3.01</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.9</v>
+        <v>3.14</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 17:54</t>
+          <t>02/09/2023 17:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-lausanne/QoETZ9yR/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-grasshoppers/Iw6eVTqr/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 17:57</t>
+          <t>02/09/2023 17:54</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.58</v>
+        <v>4.45</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.79</v>
+        <v>4.3</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 17:51</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.01</v>
+        <v>4.59</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.14</v>
+        <v>4.9</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 17:57</t>
+          <t>02/09/2023 17:54</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-grasshoppers/Iw6eVTqr/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-lausanne/QoETZ9yR/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.33</v>
+        <v>1.81</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.68</v>
+        <v>3.84</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/09/2023 20:25</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.75</v>
+        <v>3.93</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.89</v>
+        <v>4.47</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.84</v>
+        <v>4.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.13</v>
+        <v>5.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,32 +4568,32 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
           <t>27/09/2023 20:29</t>
         </is>
       </c>
-      <c r="R45" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:29</t>
-        </is>
-      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:34</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.96</v>
+        <v>3.54</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.23</v>
+        <v>2.31</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.97</v>
+        <v>2.68</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.05</v>
+        <v>1.74</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:34</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.54</v>
+        <v>3.96</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.31</v>
+        <v>4.23</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.68</v>
+        <v>3.97</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,282 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-basel/K4Hmdclb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-lausanne/beGieH34/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-zurich/GWAdfyJA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45220.85416666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-servette/fN90geYG/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.2</v>
+        <v>3.66</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.83</v>
+        <v>2.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.39</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.54</v>
+        <v>4.16</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.58</v>
+        <v>3.83</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.39</v>
+        <v>4.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 17:57</t>
+          <t>02/09/2023 17:54</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.58</v>
+        <v>4.45</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.79</v>
+        <v>4.3</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 17:51</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.01</v>
+        <v>4.59</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.14</v>
+        <v>4.9</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 17:57</t>
+          <t>02/09/2023 17:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-grasshoppers/Iw6eVTqr/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-lausanne/QoETZ9yR/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 17:54</t>
+          <t>02/09/2023 17:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.45</v>
+        <v>3.58</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.3</v>
+        <v>3.79</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 17:51</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.59</v>
+        <v>3.01</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.9</v>
+        <v>3.14</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 17:54</t>
+          <t>02/09/2023 17:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-lausanne/QoETZ9yR/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-grasshoppers/Iw6eVTqr/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,282 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/basel-servette/fN90geYG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45221.59375</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-st-gallen/lp94hFmN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45221.6875</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45221.6875</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:22</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.54</v>
+        <v>4.16</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.58</v>
+        <v>3.83</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.39</v>
+        <v>4.53</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.2</v>
+        <v>3.66</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.83</v>
+        <v>2.58</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.53</v>
+        <v>2.39</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>3.49</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>12/08/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>08/08/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>12/08/2023 17:59</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>12/08/2023 17:59</t>
-        </is>
-      </c>
       <c r="R20" t="n">
-        <v>3.33</v>
+        <v>1.96</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.14</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:59</t>
+          <t>12/08/2023 17:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
         </is>
       </c>
     </row>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.49</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.96</v>
+        <v>3.33</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.68</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.66</v>
+        <v>2.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>23/09/2023 16:45</t>
+          <t>23/09/2023 17:55</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.52</v>
+        <v>3.66</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>23/09/2023 16:47</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.48</v>
+        <v>3.54</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>23/09/2023 17:16</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-zurich/Q9dGQ5bD/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lausanne-ouchy/Q12ikkyE/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.05</v>
+        <v>2.68</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.01</v>
+        <v>2.66</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>23/09/2023 17:55</t>
+          <t>23/09/2023 16:45</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.66</v>
+        <v>3.52</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.79</v>
+        <v>3.7</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 16:47</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.54</v>
+        <v>2.48</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.65</v>
+        <v>2.58</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 17:16</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lausanne-ouchy/Q12ikkyE/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-zurich/Q9dGQ5bD/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.05</v>
+        <v>1.74</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.54</v>
+        <v>3.96</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.31</v>
+        <v>4.23</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.68</v>
+        <v>3.97</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:34</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.96</v>
+        <v>3.54</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.23</v>
+        <v>2.31</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.97</v>
+        <v>2.68</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.61</v>
+        <v>4.12</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.9</v>
+        <v>4.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.21</v>
+        <v>3.65</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.81</v>
+        <v>2.9</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:26</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.68</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.37</v>
+        <v>3.5</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.84</v>
+        <v>2.64</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.77</v>
+        <v>2.54</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.68</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:29</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.5</v>
+        <v>4.37</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:22</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.64</v>
+        <v>4.84</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,568 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.54</v>
+        <v>4.77</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:29</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.85416666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:17</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-lausanne-ouchy/2mZw7E2G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45228.59375</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-basel/phlunDQj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45228.6875</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.6875</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>24/09/2023 16:28</t>
+          <t>24/09/2023 16:21</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.76</v>
+        <v>4.45</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>24/09/2023 16:28</t>
+          <t>24/09/2023 16:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.23</v>
+        <v>4.37</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>4.68</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>24/09/2023 16:28</t>
+          <t>24/09/2023 16:21</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-servette/AiTSV0zg/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lugano/hGIXUKka/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.65</v>
+        <v>2.09</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>24/09/2023 16:21</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>24/09/2023 16:29</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.37</v>
+        <v>3.23</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.68</v>
+        <v>3.29</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>24/09/2023 16:21</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lugano/hGIXUKka/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-servette/AiTSV0zg/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:34</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.96</v>
+        <v>3.54</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.23</v>
+        <v>2.31</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.97</v>
+        <v>2.68</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.05</v>
+        <v>1.74</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:34</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.54</v>
+        <v>3.96</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.31</v>
+        <v>4.23</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.68</v>
+        <v>3.97</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.21</v>
+        <v>3.65</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.81</v>
+        <v>2.9</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:26</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.61</v>
+        <v>4.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.9</v>
+        <v>4.81</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:26</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,32 +6500,32 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,39 +6576,39 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T67" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.52</v>
+        <v>2.22</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:29</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,347 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45234.75</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45234.75</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>Lugano</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:28</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:28</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:29</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
+      <c r="J73" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45234.85416666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:21</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-servette/YTIcNZnc/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.23</v>
+        <v>3.67</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.67</v>
+        <v>4.23</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,98 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-servette/YTIcNZnc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45235.59375</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-grasshoppers/Oby70Cup/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.2</v>
+        <v>3.66</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.83</v>
+        <v>2.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.39</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.54</v>
+        <v>4.16</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.58</v>
+        <v>3.83</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.39</v>
+        <v>4.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,54 +5733,54 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.33</v>
+        <v>1.47</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.67</v>
+        <v>1.51</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>08/10/2023 16:19</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>08/10/2023 16:29</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>03/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:24</t>
-        </is>
-      </c>
       <c r="R58" t="n">
-        <v>2.81</v>
+        <v>5.56</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.66</v>
+        <v>5.82</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-luzern/QsIqcwZi/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-basel/K4Hmdclb/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.47</v>
+        <v>2.33</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.51</v>
+        <v>2.67</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 16:19</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.85</v>
+        <v>3.63</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.89</v>
+        <v>3.54</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>08/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>08/10/2023 16:29</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:29</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-basel/K4Hmdclb/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-luzern/QsIqcwZi/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,39 +6484,39 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="R66" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S66" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P66" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T66" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,32 +6592,32 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,190 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-grasshoppers/Oby70Cup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45235.6875</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-yverdon/tvYs6YHM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45235.6875</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-st-gallen/ILzBaWfj/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.05</v>
+        <v>2.68</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.01</v>
+        <v>2.66</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>23/09/2023 17:55</t>
+          <t>23/09/2023 16:45</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.66</v>
+        <v>3.52</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.79</v>
+        <v>3.7</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 16:47</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.54</v>
+        <v>2.48</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.65</v>
+        <v>2.58</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 17:16</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lausanne-ouchy/Q12ikkyE/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-zurich/Q9dGQ5bD/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.68</v>
+        <v>2.05</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.66</v>
+        <v>2.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>23/09/2023 16:45</t>
+          <t>23/09/2023 17:55</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.52</v>
+        <v>3.66</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>23/09/2023 16:47</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.48</v>
+        <v>3.54</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>23/09/2023 17:16</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-zurich/Q9dGQ5bD/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lausanne-ouchy/Q12ikkyE/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.09</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>24/09/2023 16:21</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.33</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>24/09/2023 16:29</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.37</v>
+        <v>3.23</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.68</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>24/09/2023 16:21</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lugano/hGIXUKka/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-servette/AiTSV0zg/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>24/09/2023 16:28</t>
+          <t>24/09/2023 16:21</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>4.33</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.76</v>
+        <v>4.45</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>24/09/2023 16:28</t>
+          <t>24/09/2023 16:29</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.23</v>
+        <v>4.37</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.29</v>
+        <v>4.68</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>24/09/2023 16:28</t>
+          <t>24/09/2023 16:21</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-servette/AiTSV0zg/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lugano/hGIXUKka/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.05</v>
+        <v>1.74</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.54</v>
+        <v>3.96</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.31</v>
+        <v>4.23</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.68</v>
+        <v>3.97</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 17:59</t>
+          <t>30/09/2023 17:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:34</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.96</v>
+        <v>3.54</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.23</v>
+        <v>2.31</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.97</v>
+        <v>2.68</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 17:54</t>
+          <t>30/09/2023 17:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lausanne/lrl2p0kn/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lugano/6Jr7qK4h/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.95</v>
+        <v>1.99</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.73</v>
+        <v>1.93</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:28</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.68</v>
+        <v>3.86</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:28</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.22</v>
+        <v>3.52</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:29</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.52</v>
+        <v>2.22</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,282 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-st-gallen/ILzBaWfj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:53</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-lausanne/hjio1qWf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-winterthur/0rZw351r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45241.85416666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-luzern/bTis2PGl/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,32 +6500,32 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,39 +6576,39 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T67" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,98 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-luzern/bTis2PGl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45242.59375</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:14</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:11</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lausanne-ouchy/CKH1Mg23/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,46 +2229,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.49</v>
+        <v>2.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,24 +2276,24 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.96</v>
+        <v>3.33</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.05</v>
+        <v>3.49</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>12/08/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>08/08/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>12/08/2023 17:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>12/08/2023 17:59</t>
-        </is>
-      </c>
       <c r="R21" t="n">
-        <v>3.33</v>
+        <v>1.96</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.14</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:59</t>
+          <t>12/08/2023 17:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.04</v>
+        <v>1.36</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.93</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.81</v>
+        <v>5.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.67</v>
+        <v>5.15</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.21</v>
+        <v>7.46</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.38</v>
+        <v>6.98</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-young-boys/IPQMGUUl/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-yverdon/O2RIHAFr/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.36</v>
+        <v>3.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>2.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>5.04</v>
+        <v>3.81</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5.15</v>
+        <v>3.67</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.46</v>
+        <v>2.21</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.98</v>
+        <v>2.38</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-yverdon/O2RIHAFr/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-young-boys/IPQMGUUl/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.39</v>
+        <v>3.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.62</v>
+        <v>4.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:45</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:45</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:28</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.66</v>
+        <v>2.79</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.13</v>
+        <v>2.62</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.65</v>
+        <v>3.89</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:28</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.79</v>
+        <v>3.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.62</v>
+        <v>3.13</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.61</v>
+        <v>4.12</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:29</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.9</v>
+        <v>4.81</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 16:20</t>
+          <t>01/10/2023 16:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.21</v>
+        <v>3.65</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:29</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.81</v>
+        <v>2.9</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 16:26</t>
+          <t>01/10/2023 16:20</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-lausanne-ouchy/hzoJtIlB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-zurich/zazOux4H/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.47</v>
+        <v>2.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.51</v>
+        <v>2.67</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>08/10/2023 16:19</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.85</v>
+        <v>3.63</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.89</v>
+        <v>3.54</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>08/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>03/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>08/10/2023 16:29</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:29</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-basel/K4Hmdclb/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-luzern/QsIqcwZi/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,54 +5825,54 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.33</v>
+        <v>1.47</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.67</v>
+        <v>1.51</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
+          <t>08/10/2023 16:19</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>08/10/2023 16:29</t>
         </is>
       </c>
-      <c r="N59" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>03/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:24</t>
-        </is>
-      </c>
       <c r="R59" t="n">
-        <v>2.81</v>
+        <v>5.56</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.66</v>
+        <v>5.82</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-luzern/QsIqcwZi/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-basel/K4Hmdclb/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.88</v>
+        <v>2.03</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/10/2023 17:55</t>
+          <t>21/10/2023 17:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.47</v>
+        <v>4.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/10/2023 17:55</t>
+          <t>21/10/2023 17:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.35</v>
+        <v>3.84</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.51</v>
+        <v>3.69</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/10/2023 17:55</t>
+          <t>21/10/2023 17:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-lausanne/beGieH34/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-zurich/GWAdfyJA/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.03</v>
+        <v>2.88</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 17:59</t>
+          <t>21/10/2023 17:55</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.21</v>
+        <v>3.47</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 17:59</t>
+          <t>21/10/2023 17:55</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.84</v>
+        <v>2.35</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.69</v>
+        <v>2.51</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 17:59</t>
+          <t>21/10/2023 17:55</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-zurich/GWAdfyJA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-lausanne/beGieH34/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,39 +6484,39 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="R66" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S66" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P66" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T66" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,32 +6592,32 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.52</v>
+        <v>2.22</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:29</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.95</v>
+        <v>1.99</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.73</v>
+        <v>1.93</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:28</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.86</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:28</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.22</v>
+        <v>3.52</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:29</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.67</v>
+        <v>4.23</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.23</v>
+        <v>3.67</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.38</v>
+        <v>1.47</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.74</v>
+        <v>1.53</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/11/2023 17:59</t>
+          <t>11/11/2023 17:52</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.81</v>
+        <v>4.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.87</v>
+        <v>4.93</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/11/2023 17:59</t>
+          <t>11/11/2023 17:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.06</v>
+        <v>5.94</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.96</v>
+        <v>5.57</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/11/2023 17:53</t>
+          <t>11/11/2023 17:55</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-lausanne/hjio1qWf/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-winterthur/0rZw351r/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.47</v>
+        <v>3.38</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.53</v>
+        <v>3.74</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/11/2023 17:52</t>
+          <t>11/11/2023 17:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.98</v>
+        <v>3.81</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.93</v>
+        <v>3.87</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/11/2023 17:55</t>
+          <t>11/11/2023 17:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.94</v>
+        <v>2.06</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.57</v>
+        <v>1.96</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/11/2023 17:55</t>
+          <t>11/11/2023 17:53</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-winterthur/0rZw351r/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-lausanne/hjio1qWf/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,190 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lausanne-ouchy/CKH1Mg23/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.26</v>
+        <v>3.69</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:56</t>
+          <t>05/08/2023 17:48</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.81</v>
+        <v>3.91</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>10.25</v>
+        <v>1.97</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>7.23</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:48</t>
+          <t>05/08/2023 17:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.91</v>
+        <v>6.81</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>5.57</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:58</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.97</v>
+        <v>10.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>7.23</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:53</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.89</v>
+        <v>4.47</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.84</v>
+        <v>4.44</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.13</v>
+        <v>5.75</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,32 +4476,32 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
           <t>27/09/2023 20:29</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:29</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.33</v>
+        <v>1.81</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.68</v>
+        <v>3.84</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>27/09/2023 20:25</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.75</v>
+        <v>3.93</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.03</v>
+        <v>2.88</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>21/10/2023 17:59</t>
+          <t>21/10/2023 17:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.21</v>
+        <v>3.47</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21/10/2023 17:59</t>
+          <t>21/10/2023 17:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.84</v>
+        <v>2.35</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.69</v>
+        <v>2.51</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>21/10/2023 17:59</t>
+          <t>21/10/2023 17:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-zurich/GWAdfyJA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-lausanne/beGieH34/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.88</v>
+        <v>2.03</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>21/10/2023 17:55</t>
+          <t>21/10/2023 17:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.47</v>
+        <v>4.21</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21/10/2023 17:55</t>
+          <t>21/10/2023 17:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.35</v>
+        <v>3.84</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.51</v>
+        <v>3.69</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>21/10/2023 17:55</t>
+          <t>21/10/2023 17:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-lausanne/beGieH34/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-zurich/GWAdfyJA/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.68</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:29</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.5</v>
+        <v>4.37</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:22</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.64</v>
+        <v>4.84</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.54</v>
+        <v>4.77</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:29</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.68</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:29</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.37</v>
+        <v>3.5</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:22</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.84</v>
+        <v>2.64</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.77</v>
+        <v>2.54</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,32 +6500,32 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,39 +6576,39 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T67" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.23</v>
+        <v>3.67</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.67</v>
+        <v>4.23</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.93</v>
+        <v>1.62</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:23</t>
+          <t>12/11/2023 16:27</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.51</v>
+        <v>4.26</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.26</v>
+        <v>4.37</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:29</t>
+          <t>12/11/2023 16:27</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.81</v>
+        <v>4.72</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.59</v>
+        <v>5.27</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:23</t>
+          <t>12/11/2023 16:25</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,623 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45255.75</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-winterthur/S8qbbsGD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45255.75</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-young-boys/xvRlL4NQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45255.85416666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-lugano/fFypMp8K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45256.59375</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lausanne-ouchy/lIpfaN07/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45256.6875</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>Servette</t>
         </is>
       </c>
-      <c r="G83" t="n">
-        <v>4</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-grasshoppers/tCXuNQhE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45256.6875</v>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>Basel</t>
         </is>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:27</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:27</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:25</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-st-gallen/Wtjk03o1/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>6.28</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>8.529999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:23</t>
+          <t>30/07/2023 16:28</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.93</v>
+        <v>4.31</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5.7</v>
+        <v>3.67</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:23</t>
+          <t>30/07/2023 16:24</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>5.49</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.34</v>
+        <v>3.42</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:16</t>
+          <t>30/07/2023 16:28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-young-boys/W4Q89DNL/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-winterthur/xrR4Ag8F/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.58</v>
+        <v>6.28</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.13</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:28</t>
+          <t>30/07/2023 16:23</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.31</v>
+        <v>4.93</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.67</v>
+        <v>5.7</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:24</t>
+          <t>30/07/2023 16:23</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.49</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.42</v>
+        <v>1.34</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:28</t>
+          <t>30/07/2023 16:16</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-winterthur/xrR4Ag8F/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-young-boys/W4Q89DNL/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:48</t>
+          <t>05/08/2023 17:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.91</v>
+        <v>6.81</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>5.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:58</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.97</v>
+        <v>10.25</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>7.23</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:53</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.26</v>
+        <v>3.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:56</t>
+          <t>05/08/2023 17:48</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.81</v>
+        <v>3.91</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>10.25</v>
+        <v>1.97</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.23</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.54</v>
+        <v>4.16</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.58</v>
+        <v>3.83</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.39</v>
+        <v>4.53</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.2</v>
+        <v>3.66</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.83</v>
+        <v>2.58</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.53</v>
+        <v>2.39</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:45</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.39</v>
+        <v>3.88</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.62</v>
+        <v>4.46</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:45</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,32 +4384,32 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>27/09/2023 20:29</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:29</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.33</v>
+        <v>1.81</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.68</v>
+        <v>3.84</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>27/09/2023 20:25</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.75</v>
+        <v>3.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.89</v>
+        <v>4.47</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.84</v>
+        <v>4.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.13</v>
+        <v>5.75</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.65</v>
+        <v>3.89</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:28</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.79</v>
+        <v>3.66</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.62</v>
+        <v>3.13</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:28</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.66</v>
+        <v>2.79</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.13</v>
+        <v>2.62</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.68</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.37</v>
+        <v>3.5</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.84</v>
+        <v>2.64</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.77</v>
+        <v>2.54</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 16:25</t>
+          <t>22/10/2023 16:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.68</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:29</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.5</v>
+        <v>4.37</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:22</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.64</v>
+        <v>4.84</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.54</v>
+        <v>4.77</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 16:29</t>
+          <t>22/10/2023 16:25</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lugano/0KC8iZ2T/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-yverdon/61kymgBp/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,39 +6484,39 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="R66" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S66" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P66" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T66" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,32 +6592,32 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.67</v>
+        <v>4.23</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
       <c r="J73" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.23</v>
+        <v>3.67</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.62</v>
+        <v>2.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:27</t>
+          <t>12/11/2023 16:23</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.26</v>
+        <v>3.51</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.37</v>
+        <v>3.26</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:27</t>
+          <t>12/11/2023 16:29</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.72</v>
+        <v>2.81</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.27</v>
+        <v>2.59</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:25</t>
+          <t>12/11/2023 16:23</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.93</v>
+        <v>1.62</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>12/11/2023 16:23</t>
+          <t>12/11/2023 16:27</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.51</v>
+        <v>4.26</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.26</v>
+        <v>4.37</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>12/11/2023 16:29</t>
+          <t>12/11/2023 16:27</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.81</v>
+        <v>4.72</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.59</v>
+        <v>5.27</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>12/11/2023 16:23</t>
+          <t>12/11/2023 16:25</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.52</v>
+        <v>3.51</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.56</v>
+        <v>3.19</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>26/11/2023 16:25</t>
+          <t>26/11/2023 16:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>26/11/2023 16:25</t>
+          <t>26/11/2023 16:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>5.07</v>
+        <v>1.85</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.57</v>
+        <v>2.17</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>26/11/2023 16:25</t>
+          <t>26/11/2023 16:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-grasshoppers/tCXuNQhE/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-st-gallen/Wtjk03o1/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.51</v>
+        <v>1.52</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.19</v>
+        <v>1.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>26/11/2023 16:29</t>
+          <t>26/11/2023 16:25</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.99</v>
+        <v>4.42</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>26/11/2023 16:29</t>
+          <t>26/11/2023 16:25</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.85</v>
+        <v>5.07</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,200 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.17</v>
+        <v>5.57</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>26/11/2023 16:29</t>
+          <t>26/11/2023 16:25</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-st-gallen/Wtjk03o1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-grasshoppers/tCXuNQhE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45262.75</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:48</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-lausanne/vmDGGOVs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45262.75</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-basel/8S0TDMF0/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,22 +1133,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>26/07/2023 20:42</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1156,15 +1156,15 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>26/07/2023 20:42</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.88</v>
+        <v>4.2</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1172,15 +1172,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>26/07/2023 20:42</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.76</v>
+        <v>4.56</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-st-gallen/4hZiDeOd/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-grasshoppers/GxtAlCod/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.39</v>
+        <v>2.53</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>26/07/2023 20:42</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.73</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1248,15 +1248,15 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>26/07/2023 20:42</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1264,15 +1264,15 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>26/07/2023 20:42</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.56</v>
+        <v>2.76</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-grasshoppers/GxtAlCod/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-st-gallen/4hZiDeOd/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>6.28</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.13</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:28</t>
+          <t>30/07/2023 16:23</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.31</v>
+        <v>4.93</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.67</v>
+        <v>5.7</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:24</t>
+          <t>30/07/2023 16:23</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.49</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.42</v>
+        <v>1.34</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:28</t>
+          <t>30/07/2023 16:16</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-winterthur/xrR4Ag8F/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-young-boys/W4Q89DNL/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>6.28</v>
+        <v>1.58</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>8.529999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:23</t>
+          <t>30/07/2023 16:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.93</v>
+        <v>4.31</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5.7</v>
+        <v>3.67</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:23</t>
+          <t>30/07/2023 16:24</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>5.49</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.34</v>
+        <v>3.42</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:16</t>
+          <t>30/07/2023 16:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-young-boys/W4Q89DNL/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-winterthur/xrR4Ag8F/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.26</v>
+        <v>3.69</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:56</t>
+          <t>05/08/2023 17:48</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.81</v>
+        <v>3.91</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>10.25</v>
+        <v>1.97</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>7.23</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:48</t>
+          <t>05/08/2023 17:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.91</v>
+        <v>6.81</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>5.57</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:58</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.97</v>
+        <v>10.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>7.23</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:53</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.36</v>
+        <v>3.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>2.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>5.04</v>
+        <v>3.81</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5.15</v>
+        <v>3.67</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>7.46</v>
+        <v>2.21</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.98</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-yverdon/O2RIHAFr/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-young-boys/IPQMGUUl/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.04</v>
+        <v>1.36</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.93</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.81</v>
+        <v>5.04</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.67</v>
+        <v>5.15</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.21</v>
+        <v>7.46</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>6.98</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-young-boys/IPQMGUUl/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-yverdon/O2RIHAFr/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.89</v>
+        <v>4.47</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.84</v>
+        <v>4.44</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.13</v>
+        <v>5.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>27/09/2023 19:35</t>
+          <t>27/09/2023 20:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.47</v>
+        <v>3.89</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.44</v>
+        <v>3.84</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.91</v>
+        <v>3.93</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.75</v>
+        <v>3.13</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>27/09/2023 20:29</t>
+          <t>27/09/2023 19:35</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:28</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.66</v>
+        <v>2.79</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>24/09/2023 22:12</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.13</v>
+        <v>2.62</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/09/2023 20:29</t>
+          <t>28/09/2023 20:03</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.65</v>
+        <v>3.89</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:28</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.79</v>
+        <v>3.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 22:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.62</v>
+        <v>3.13</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/09/2023 20:03</t>
+          <t>28/09/2023 20:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-luzern/YVDhQd4U/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-yverdon/Aikbotzt/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.61</v>
+        <v>1.63</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.53</v>
+        <v>4.38</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.96</v>
+        <v>5.44</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/10/2023 02:13</t>
+          <t>01/10/2023 15:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.73</v>
+        <v>5.17</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>07/10/2023 17:54</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
       <c r="J55" t="n">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.63</v>
+        <v>2.61</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.38</v>
+        <v>3.53</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.44</v>
+        <v>2.96</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>01/10/2023 15:42</t>
+          <t>03/10/2023 02:13</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.17</v>
+        <v>2.73</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:54</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-winterthur/8QmVwGYT/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-grasshoppers/EkZRvdJN/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.39</v>
+        <v>2.65</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>28/10/2023 17:36</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.14</v>
+        <v>3.64</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,32 +6500,32 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>28/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:59</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.65</v>
+        <v>1.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,39 +6576,39 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>28/10/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>28/10/2023 17:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>22/10/2023 16:42</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>28/10/2023 17:57</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="T67" t="n">
-        <v>2.78</v>
+        <v>5.02</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-winterthur/8QZZ7fmA/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-grasshoppers/fNVV8zY3/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.95</v>
+        <v>1.99</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.73</v>
+        <v>1.93</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:28</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.68</v>
+        <v>3.86</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:28</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.22</v>
+        <v>3.52</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 16:29</t>
+          <t>29/10/2023 16:21</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:28</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.52</v>
+        <v>2.22</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 16:21</t>
+          <t>29/10/2023 16:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-luzern/CbtR9GIc/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-young-boys/Y7sNAd3i/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.23</v>
+        <v>3.67</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/11/2023 17:57</t>
+          <t>04/11/2023 17:52</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.34</v>
+        <v>3.47</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.67</v>
+        <v>4.23</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 17:52</t>
+          <t>04/11/2023 17:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-lugano/Mkku5hXS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-young-boys/WOvFbjAd/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.93</v>
+        <v>1.62</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:23</t>
+          <t>12/11/2023 16:27</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.51</v>
+        <v>4.26</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.26</v>
+        <v>4.37</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:29</t>
+          <t>12/11/2023 16:27</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.81</v>
+        <v>4.72</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.59</v>
+        <v>5.27</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>12/11/2023 16:23</t>
+          <t>12/11/2023 16:25</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.62</v>
+        <v>2.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>12/11/2023 16:27</t>
+          <t>12/11/2023 16:23</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.26</v>
+        <v>3.51</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.37</v>
+        <v>3.26</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>12/11/2023 16:27</t>
+          <t>12/11/2023 16:29</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.72</v>
+        <v>2.81</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.27</v>
+        <v>2.59</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>12/11/2023 16:25</t>
+          <t>12/11/2023 16:23</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-basel/KpL9KXWF/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-zurich/tfM5LDH9/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,1662 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-basel/8S0TDMF0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45263.6875</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-luzern/nDCKFrol/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45263.6875</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:17</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:17</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-servette/Gh4yC0pD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45266.77083333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-yverdon/Q3BOE20f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45266.85416666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lausanne-ouchy/hrJZDSE7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45266.85416666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>19/08/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:10</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>19/08/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>19/08/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:16</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-basel/6o7HxCi8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45269.75</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-grasshoppers/fq3uBKaJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45269.75</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-st-gallen/UaKiEjRt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45269.85416666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-servette/YTYLJC3J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45270.59375</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-winterthur/CKXPIWIP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45270.6875</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:26</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-lausanne-ouchy/tzOeDAtm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45270.6875</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:24</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:26</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-luzern/ObD0CUeg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45273.85416666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:27</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:27</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-zurich/MV4XCtV6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45276.75</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:37</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:37</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-young-boys/6s9L76AO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45276.75</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-zurich/hv5H8neI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45276.85416666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:18</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:18</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:18</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-yverdon/2kC4BlBa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45277.59375</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:11</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:03</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>13/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:11</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lausanne/Kpc3WkmP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45277.6875</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-basel/WOG8A8Q5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45277.6875</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-lugano/AFFC9SuC/</t>
         </is>
       </c>
     </row>
